--- a/Task Board.xlsx
+++ b/Task Board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Shobhit" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="171">
   <si>
     <t>Agile Task Board</t>
   </si>
@@ -231,12 +231,6 @@
     <t>issue with routing</t>
   </si>
   <si>
-    <t>issue with concept and  mistakes in character casing</t>
-  </si>
-  <si>
-    <t>issue with concept and mistakes in character casing</t>
-  </si>
-  <si>
     <t>mistakes with letter casing</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>UI - Create Angular Component &amp; Template for "Create Account Page for existing Customer" using Bootstrap &amp; Angular</t>
   </si>
   <si>
-    <t>UI - Create Angular Component &amp; Template for "Create Account Page for new Customer" using Bootstrap &amp; Angular</t>
-  </si>
-  <si>
     <t>UI - Create Angular Component &amp; Template for "Update/Modify Account" using Bootstrap &amp; Angular</t>
   </si>
   <si>
@@ -258,18 +249,9 @@
     <t>Accounts</t>
   </si>
   <si>
-    <t xml:space="preserve">       Performing CRUD operations using stored procedures and LINQ queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       UI-Creating Views for Creating,Searching,Updating and deleting an account using bootstrap and css</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Performing Web optimization through bundling</t>
   </si>
   <si>
-    <t xml:space="preserve">       Creating Wep API and consuming it in Angular Application</t>
-  </si>
-  <si>
     <t>Preparing Test Cases using MSUnit test cases for all CRUD operations</t>
   </si>
   <si>
@@ -297,24 +279,9 @@
     <t xml:space="preserve">   Preparing MSunit test cases for creating account</t>
   </si>
   <si>
-    <t xml:space="preserve">       Creating WCF Service and consuming it in ASP.NET MVC Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Creating Data Access Layer for Accounts using Entity Framework </t>
-  </si>
-  <si>
     <t xml:space="preserve">       Creating Data Access Layer for Customer using Entity Framework </t>
   </si>
   <si>
-    <t xml:space="preserve">       UI- Form Designing of window forms for Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       UI-Creating Views for Creating,Searching,Updating customer using bootstrap and css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Writing the C# Controller code for Customer</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Preparing Excel test cases for adding customer</t>
   </si>
   <si>
@@ -333,15 +300,6 @@
     <t xml:space="preserve">  Preparing MSunit test cases for searching customer</t>
   </si>
   <si>
-    <t xml:space="preserve">       Creating Data Access Layer for Loan using Entity Framework </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       UI- Form Designing of window forms for Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Writing the C# Controller code for Loan</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Preparing Excel test cases for applying for loan</t>
   </si>
   <si>
@@ -351,9 +309,6 @@
     <t xml:space="preserve">   Preparing Excel test cases for updating loan status</t>
   </si>
   <si>
-    <t xml:space="preserve">   Preparing MSunit test cases for adding customer</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Preparing Excel test cases for deleting applied loan </t>
   </si>
   <si>
@@ -363,9 +318,6 @@
     <t xml:space="preserve">         UI - Create Angular Component &amp; Template for "Show  Loan" using Bootstrap &amp; Angular</t>
   </si>
   <si>
-    <t xml:space="preserve">       UI-Creating Views for Applying,Searching,Deleting,Updating the loan status using bootstrap and css</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Preparing Excel test cases for applying for debit card</t>
   </si>
   <si>
@@ -384,24 +336,6 @@
     <t xml:space="preserve">  Preparing MSunit test cases for updating debit card</t>
   </si>
   <si>
-    <t xml:space="preserve">       Creating Data Access Layer for Debit Card using Entity Framework </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Writing the C# Controller code for Debit Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       UI- Form Designing of window forms for Debit Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       UI- Form Designing of window forms for Cheque Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Creating Data Access Layer for Cheque Book using Entity Framework </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Writing the C# Controller code for Cheque Book</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Preparing Excel test cases for applying for debit card</t>
   </si>
   <si>
@@ -526,6 +460,87 @@
   </si>
   <si>
     <t xml:space="preserve">       Creating WCF Service for Accounts and consuming it in ASP.NET MVC Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for adding customer using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for searching customer using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for updating Customer details using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Creating Controller and Model for Customer in ASP.NET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for adding a customer using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for Searching a customer using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for Updating customer details using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Preparing MSunit test cases for applying for loan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Preparing MSunit test cases for searching loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Preparing MSunit test cases for updating loan status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Creating Data Access Layer for Loans using Entity Framework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for apply loan using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for searching loan using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for updating loan status using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for deleting loan using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Creating Controller and Model for loans in ASP.NET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for for apply loan using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for searching an loan using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for updating loan status using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI-Creating Views for deleting loan using bootstrap and css in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Creating Wep API for Loans and consuming it in Angular Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Creating WCF Service for Loans and consuming it in ASP.NET MVC Application</t>
+  </si>
+  <si>
+    <t>Issues in concepts and mistakes in letter casing</t>
+  </si>
+  <si>
+    <t>Issues with concepts and mistakes with letter casing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for appling for debit card using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for searching debit card using WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       UI- Form Designing for updating debit card using WPF</t>
   </si>
 </sst>
 </file>
@@ -630,7 +645,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -696,6 +711,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1015,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1253,7 @@
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -1243,7 +1264,7 @@
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B26" s="2">
         <v>0.5</v>
@@ -1254,7 +1275,7 @@
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -1265,7 +1286,7 @@
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -1276,7 +1297,7 @@
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -1288,7 +1309,7 @@
     <row r="30" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2">
         <v>1.5</v>
@@ -1299,7 +1320,7 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2">
         <v>0.5</v>
@@ -1310,7 +1331,7 @@
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2">
         <v>0.5</v>
@@ -1321,7 +1342,7 @@
     </row>
     <row r="34" spans="1:3" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B34" s="9">
         <v>1.5</v>
@@ -1332,7 +1353,7 @@
     </row>
     <row r="35" spans="1:3" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B35" s="9">
         <v>1.5</v>
@@ -1343,7 +1364,7 @@
     </row>
     <row r="36" spans="1:3" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B36" s="9">
         <v>0.5</v>
@@ -1354,7 +1375,7 @@
     </row>
     <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -1365,7 +1386,7 @@
     </row>
     <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1387,12 +1408,12 @@
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2">
         <v>1.5</v>
@@ -1403,7 +1424,7 @@
     </row>
     <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -1414,7 +1435,7 @@
     </row>
     <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1425,7 +1446,7 @@
     </row>
     <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -1439,7 +1460,7 @@
     </row>
     <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2">
         <v>1.5</v>
@@ -1450,7 +1471,7 @@
     </row>
     <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2">
         <v>0.5</v>
@@ -1461,7 +1482,7 @@
     </row>
     <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -1472,7 +1493,7 @@
     </row>
     <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1483,7 +1504,7 @@
     </row>
     <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B51" s="2">
         <v>1.5</v>
@@ -1494,7 +1515,7 @@
     </row>
     <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -1505,7 +1526,7 @@
     </row>
     <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -1527,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1634,22 +1655,46 @@
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,22 +1710,46 @@
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>107</v>
+        <v>151</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>107</v>
+        <v>153</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,7 +1816,7 @@
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -1762,42 +1831,134 @@
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>101</v>
+        <v>154</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>102</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1811,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1923,24 +2084,36 @@
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -1958,29 +2131,37 @@
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.5</v>
+      </c>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.5</v>
+      </c>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="23"/>
     </row>
@@ -2038,42 +2219,112 @@
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>76</v>
+        <v>145</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>89</v>
+        <v>150</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2087,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2159,14 +2410,14 @@
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -2199,7 +2450,7 @@
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7">
         <v>0.25</v>
@@ -2210,7 +2461,7 @@
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7">
         <v>0.25</v>
@@ -2221,7 +2472,7 @@
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <v>0.25</v>
@@ -2232,7 +2483,7 @@
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <v>0.25</v>
@@ -2243,7 +2494,7 @@
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7">
         <v>2</v>
@@ -2254,18 +2505,21 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B17" s="7">
         <v>0.5</v>
       </c>
       <c r="C17" s="7">
         <v>0.5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7">
         <v>0.5</v>
@@ -2273,10 +2527,11 @@
       <c r="C18" s="7">
         <v>0.5</v>
       </c>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7">
         <v>0.5</v>
@@ -2284,10 +2539,11 @@
       <c r="C19" s="7">
         <v>0.5</v>
       </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7">
         <v>0.5</v>
@@ -2295,6 +2551,7 @@
       <c r="C20" s="7">
         <v>1</v>
       </c>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -2306,13 +2563,11 @@
       <c r="C21" s="7">
         <v>2.5</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -2320,67 +2575,73 @@
       <c r="C22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>72</v>
+      <c r="A23" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="7">
         <v>2</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="D24" s="23"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="23"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="23"/>
+      <c r="A27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -2388,59 +2649,56 @@
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
       </c>
       <c r="C32" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B33" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B34" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C34" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -2449,88 +2707,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B36" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C36" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B37" s="9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C37" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B38" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B39" s="9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C39" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="9">
-        <v>2</v>
-      </c>
-      <c r="C41" s="9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D17:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2538,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2553,19 +2777,19 @@
     <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2798,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2807,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2592,12 +2816,12 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -2608,14 +2832,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>43</v>
       </c>
@@ -2626,7 +2850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2648,22 +2872,22 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2673,21 +2897,27 @@
       <c r="C15" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>116</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>117</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -2699,9 +2929,7 @@
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -2713,7 +2941,7 @@
       <c r="C20" s="9">
         <v>2.5</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -2725,7 +2953,7 @@
       <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -2737,7 +2965,7 @@
       <c r="C22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -2749,7 +2977,7 @@
       <c r="C23" s="9">
         <v>3</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2761,146 +2989,222 @@
       <c r="C24" s="9">
         <v>2.5</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="23"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="23"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="23"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="23"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="19"/>
+        <v>169</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="19"/>
+        <v>140</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="19"/>
+      <c r="A38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="19"/>
+      <c r="A39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="19"/>
+      <c r="A40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>3</v>
+      <c r="A43" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>61</v>
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B45" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C45" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B46" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>52</v>
+      <c r="A47" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="B47" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="9">
-        <v>1.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B48" s="9">
         <v>2</v>
       </c>
       <c r="C48" s="9">
-        <v>2.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B49" s="9">
         <v>2</v>
@@ -2908,36 +3212,35 @@
       <c r="C49" s="9">
         <v>2</v>
       </c>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>126</v>
+      <c r="A50" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B50" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="9">
-        <v>2</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>67</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>53</v>
+      <c r="A51" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="B51" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="9">
-        <v>3</v>
-      </c>
-      <c r="D51" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B52" s="9">
         <v>2</v>
@@ -2945,11 +3248,11 @@
       <c r="C52" s="9">
         <v>2</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B53" s="9">
         <v>2</v>
@@ -2957,97 +3260,164 @@
       <c r="C53" s="9">
         <v>2</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="9">
-        <v>2</v>
-      </c>
-      <c r="C54" s="9">
-        <v>2</v>
-      </c>
-      <c r="D54" s="23"/>
+      <c r="A54" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="23"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="23"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C68" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>89</v>
+        <v>133</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D47:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
